--- a/SWAP2.xlsx
+++ b/SWAP2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>Teste 1</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>Teste 2</t>
+  </si>
+  <si>
+    <t>Teste 3 (1 check)</t>
+  </si>
+  <si>
+    <t>Solução</t>
+  </si>
+  <si>
+    <t>Nao terminou</t>
+  </si>
+  <si>
+    <t>Sem memoria</t>
   </si>
 </sst>
 </file>
@@ -157,11 +169,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1918745551"/>
-        <c:axId val="368690059"/>
+        <c:axId val="1536826866"/>
+        <c:axId val="1505613730"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1918745551"/>
+        <c:axId val="1536826866"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -193,10 +205,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368690059"/>
+        <c:crossAx val="1505613730"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="368690059"/>
+        <c:axId val="1505613730"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -244,7 +256,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1918745551"/>
+        <c:crossAx val="1536826866"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -309,11 +321,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1129642500"/>
-        <c:axId val="1853225933"/>
+        <c:axId val="1575896342"/>
+        <c:axId val="454934717"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1129642500"/>
+        <c:axId val="1575896342"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -345,10 +357,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1853225933"/>
+        <c:crossAx val="454934717"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1853225933"/>
+        <c:axId val="454934717"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -396,7 +408,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1129642500"/>
+        <c:crossAx val="1575896342"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -481,6 +493,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="22.14"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -786,6 +801,81 @@
         <v>1121.375013</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="B41" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="B42" s="1">
+        <v>130.0</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="1">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>400.0</v>
+      </c>
+      <c r="B43" s="1">
+        <v>420.0</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="1">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>800.0</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1600.0</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="1">
+        <v>60.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/SWAP2.xlsx
+++ b/SWAP2.xlsx
@@ -169,11 +169,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1536826866"/>
-        <c:axId val="1505613730"/>
+        <c:axId val="1946522055"/>
+        <c:axId val="1405036636"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1536826866"/>
+        <c:axId val="1946522055"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -205,10 +205,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1505613730"/>
+        <c:crossAx val="1405036636"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1505613730"/>
+        <c:axId val="1405036636"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -256,7 +256,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1536826866"/>
+        <c:crossAx val="1946522055"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -321,11 +321,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1575896342"/>
-        <c:axId val="454934717"/>
+        <c:axId val="934502762"/>
+        <c:axId val="26462670"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1575896342"/>
+        <c:axId val="934502762"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -357,10 +357,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454934717"/>
+        <c:crossAx val="26462670"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="454934717"/>
+        <c:axId val="26462670"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,7 +408,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1575896342"/>
+        <c:crossAx val="934502762"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
